--- a/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Cálculos" sheetId="1" r:id="rId1"/>
     <sheet name="Informe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="119">
   <si>
     <t>Período 1</t>
   </si>
@@ -61,12 +66,6 @@
     <t>AC</t>
   </si>
   <si>
-    <t>Implementación DER (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Administración índices (Pablo Lopez)</t>
-  </si>
-  <si>
     <t>Intregración ABM alumnos con Web</t>
   </si>
   <si>
@@ -232,9 +231,6 @@
     <t>Pablo López</t>
   </si>
   <si>
-    <t>Análisis:</t>
-  </si>
-  <si>
     <t>Indicadores</t>
   </si>
   <si>
@@ -245,54 +241,6 @@
   </si>
   <si>
     <t>Firma</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Alumnos (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Cursos (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Preguntas (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Preguntas Multiple Choice (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Preguntas Verdadero o Falso (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Notas (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Estadísticas (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Estadísticas de Faltas (Matías Lizarraga)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Carreras (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Turnos (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Exámenes (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Exámenes Manual (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Exámenes Simulado (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Exámenes Imágenes (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Desarrollar ABM Estadísticas de Aprobación (Pablo Lopez)</t>
-  </si>
-  <si>
-    <t>Diseño de la base de datos (Matías Lizarraga)</t>
   </si>
   <si>
     <t>Estoy al final del período 3</t>
@@ -372,12 +320,6 @@
     <t>Utilizamos menos costos para la actividad que realizamos</t>
   </si>
   <si>
-    <t>Lo que falta para terminar el proyecto según lo presupuestado</t>
-  </si>
-  <si>
-    <t>Lo que falta para terminar el proyecto si seguimos así</t>
-  </si>
-  <si>
     <t>Lo que va a costar el proyecto según lo presupuestado</t>
   </si>
   <si>
@@ -387,19 +329,105 @@
     <t>Lo que va a costar el proyecto si mantenemos el rendimiento del costo</t>
   </si>
   <si>
-    <t>Estamos un 1% por encima de la eficiencia que deberiamos tener</t>
-  </si>
-  <si>
     <t>Estamos atrasados con el trabajo planificado</t>
   </si>
   <si>
     <t>Atrasados en el calendario</t>
+  </si>
+  <si>
+    <t>La estimación se hace en horas</t>
+  </si>
+  <si>
+    <t>Estamos un 4% por encima de la eficiencia que deberiamos tener</t>
+  </si>
+  <si>
+    <t>Horas que faltan para terminar el proyecto según lo presupuestado</t>
+  </si>
+  <si>
+    <t>Horas que faltan para terminar el proyecto si seguimos así</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Estadísticas de Faltas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Estadísticas de Aprobación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de la base de datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación DER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administración índices </t>
+  </si>
+  <si>
+    <t>Desarrollar ABM Alumnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Carreras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Cursos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Turnos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Preguntas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Preguntas Multiple Choice </t>
+  </si>
+  <si>
+    <t>Desarrollar ABM Preguntas Verdadero o Falso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Exámenes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Exámenes Manual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Exámenes Simulado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Exámenes Imágenes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Notas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollar ABM Estadísticas </t>
+  </si>
+  <si>
+    <r>
+      <t>Análisis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>En base al gráfico, podemos observar que, a diferencia del período numero 2, avanzamos con la mayoría de las actividades planeadas para el tercer período. El AC sigue por debajo del EV.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1479,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1599,6 +1627,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,9 +1648,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1620,11 +1658,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,75 +1751,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1740,17 +1760,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,14 +1855,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1865,6 +1893,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1874,7 +1909,7 @@
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1884,6 +1919,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1916,6 +1956,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0584-42DD-9A32-D06F9F6149EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1936,6 +1981,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1945,7 +1997,7 @@
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1955,6 +2007,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -1987,6 +2044,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0584-42DD-9A32-D06F9F6149EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2007,6 +2069,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2016,7 +2085,7 @@
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-AR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2026,6 +2095,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -2058,6 +2132,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0584-42DD-9A32-D06F9F6149EE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2074,7 +2153,6 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="103323136"/>
         <c:axId val="92324992"/>
@@ -2111,7 +2189,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92324992"/>
@@ -2207,7 +2285,7 @@
                 <a:ea typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="103323136"/>
@@ -2250,13 +2328,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>565200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2279,7 +2357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2321,7 +2399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2356,7 +2434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2568,11 +2646,11 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2585,46 +2663,46 @@
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91" t="s">
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89" t="s">
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89" t="s">
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89" t="s">
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="90" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -2708,7 +2786,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B3" s="74">
         <v>8</v>
@@ -2761,7 +2839,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B4" s="75">
         <v>1</v>
@@ -2808,7 +2886,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B5" s="76">
         <v>6</v>
@@ -2853,7 +2931,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B6" s="76">
         <v>6</v>
@@ -2904,7 +2982,7 @@
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="77">
         <v>4</v>
@@ -2947,7 +3025,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="B8" s="77">
         <v>6</v>
@@ -2994,7 +3072,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="76">
         <v>4</v>
@@ -3037,7 +3115,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B10" s="31">
         <v>6</v>
@@ -3086,7 +3164,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="31">
         <v>4</v>
@@ -3129,7 +3207,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B12" s="31">
         <v>6</v>
@@ -3176,7 +3254,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="31">
         <v>4</v>
@@ -3219,7 +3297,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B14" s="31">
         <v>6</v>
@@ -3266,7 +3344,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="31">
         <v>4</v>
@@ -3309,7 +3387,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B16" s="31">
         <v>4</v>
@@ -3356,7 +3434,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B17" s="31">
         <v>4</v>
@@ -3403,7 +3481,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B18" s="31">
         <v>6</v>
@@ -3446,7 +3524,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="31">
         <v>4</v>
@@ -3489,7 +3567,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B20" s="31">
         <v>4</v>
@@ -3532,7 +3610,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B21" s="31">
         <v>4</v>
@@ -3575,7 +3653,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
@@ -3618,7 +3696,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B23" s="31">
         <v>6</v>
@@ -3665,7 +3743,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="31">
         <v>4</v>
@@ -3708,7 +3786,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B25" s="31">
         <v>6</v>
@@ -3751,7 +3829,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B26" s="31">
         <v>6</v>
@@ -3796,7 +3874,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B27" s="31">
         <v>6</v>
@@ -3840,8 +3918,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111" t="s">
-        <v>92</v>
+      <c r="A28" s="90" t="s">
+        <v>73</v>
       </c>
       <c r="B28" s="31">
         <v>8</v>
@@ -3889,8 +3967,8 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
-        <v>93</v>
+      <c r="A29" s="90" t="s">
+        <v>74</v>
       </c>
       <c r="B29" s="31">
         <v>16</v>
@@ -3935,7 +4013,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="31">
         <v>16</v>
@@ -3976,7 +4054,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="31">
         <v>16</v>
@@ -4017,7 +4095,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="31">
         <v>16</v>
@@ -4057,8 +4135,8 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="113" t="s">
-        <v>103</v>
+      <c r="A33" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="B33" s="78">
         <v>16</v>
@@ -4102,8 +4180,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="111" t="s">
-        <v>94</v>
+      <c r="A34" s="90" t="s">
+        <v>75</v>
       </c>
       <c r="B34" s="31">
         <v>4</v>
@@ -4145,8 +4223,8 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111" t="s">
-        <v>95</v>
+      <c r="A35" s="90" t="s">
+        <v>76</v>
       </c>
       <c r="B35" s="31">
         <v>8</v>
@@ -4190,8 +4268,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="111" t="s">
-        <v>96</v>
+      <c r="A36" s="90" t="s">
+        <v>77</v>
       </c>
       <c r="B36" s="31">
         <v>4</v>
@@ -4233,8 +4311,8 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="111" t="s">
-        <v>97</v>
+      <c r="A37" s="90" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="31">
         <v>4</v>
@@ -4263,21 +4341,21 @@
       <c r="V37" s="17"/>
       <c r="W37" s="54"/>
       <c r="X37" s="18">
-        <f t="shared" ref="X37:X39" si="13">+L37+I37+F37+C37+U37+R37+O37</f>
+        <f t="shared" ref="X37" si="13">+L37+I37+F37+C37+U37+R37+O37</f>
         <v>4</v>
       </c>
       <c r="Y37" s="18">
-        <f t="shared" ref="Y37:Y39" si="14">+M37+J37+G37+D37+V37+S37+P37</f>
+        <f t="shared" ref="Y37" si="14">+M37+J37+G37+D37+V37+S37+P37</f>
         <v>0</v>
       </c>
       <c r="Z37" s="22">
-        <f t="shared" ref="Z37:Z39" si="15">+N37+K37+H37+E37+W37+T37+Q37</f>
+        <f t="shared" ref="Z37" si="15">+N37+K37+H37+E37+W37+T37+Q37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="113" t="s">
-        <v>102</v>
+      <c r="A38" s="92" t="s">
+        <v>83</v>
       </c>
       <c r="B38" s="78">
         <v>10</v>
@@ -4321,8 +4399,8 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="111" t="s">
-        <v>98</v>
+      <c r="A39" s="90" t="s">
+        <v>79</v>
       </c>
       <c r="B39" s="31">
         <v>6</v>
@@ -4353,21 +4431,21 @@
       <c r="V39" s="17"/>
       <c r="W39" s="54"/>
       <c r="X39" s="18">
-        <f>+L39+I39+F39+C39+U39+R39+O39</f>
+        <f t="shared" ref="X39:Z40" si="19">+L39+I39+F39+C39+U39+R39+O39</f>
         <v>6</v>
       </c>
       <c r="Y39" s="18">
-        <f>+M39+J39+G39+D39+V39+S39+P39</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z39" s="22">
-        <f>+N39+K39+H39+E39+W39+T39+Q39</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
-        <v>99</v>
+      <c r="A40" s="90" t="s">
+        <v>80</v>
       </c>
       <c r="B40" s="31">
         <v>4</v>
@@ -4396,21 +4474,21 @@
       <c r="V40" s="17"/>
       <c r="W40" s="54"/>
       <c r="X40" s="18">
-        <f>+L40+I40+F40+C40+U40+R40+O40</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="Y40" s="18">
-        <f>+M40+J40+G40+D40+V40+S40+P40</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Z40" s="22">
-        <f>+N40+K40+H40+E40+W40+T40+Q40</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111" t="s">
-        <v>100</v>
+      <c r="A41" s="90" t="s">
+        <v>81</v>
       </c>
       <c r="B41" s="31">
         <v>4</v>
@@ -4439,23 +4517,23 @@
       <c r="V41" s="17"/>
       <c r="W41" s="54"/>
       <c r="X41" s="18">
-        <f t="shared" ref="X41" si="19">+L41+I41+F41+C41+U41+R41+O41</f>
+        <f t="shared" ref="X41" si="20">+L41+I41+F41+C41+U41+R41+O41</f>
         <v>4</v>
       </c>
       <c r="Y41" s="18">
-        <f t="shared" ref="Y41" si="20">+M41+J41+G41+D41+V41+S41+P41</f>
+        <f t="shared" ref="Y41" si="21">+M41+J41+G41+D41+V41+S41+P41</f>
         <v>0</v>
       </c>
       <c r="Z41" s="22">
-        <f t="shared" ref="Z41" si="21">+N41+K41+H41+E41+W41+T41+Q41</f>
+        <f t="shared" ref="Z41" si="22">+N41+K41+H41+E41+W41+T41+Q41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="112">
+      <c r="A42" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="91">
         <v>8</v>
       </c>
       <c r="C42" s="30"/>
@@ -4497,109 +4575,109 @@
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="73"/>
       <c r="B43" s="71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="67">
-        <f>SUM(C3:C42)</f>
+        <f t="shared" ref="C43:Z43" si="23">SUM(C3:C42)</f>
         <v>4</v>
       </c>
       <c r="D43" s="68">
-        <f>SUM(D3:D42)</f>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E43" s="61">
-        <f>SUM(E3:E42)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="F43" s="69">
-        <f>SUM(F3:F42)</f>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="G43" s="68">
-        <f>SUM(G3:G42)</f>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="H43" s="70">
-        <f>SUM(H3:H42)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="I43" s="67">
-        <f>SUM(I3:I42)</f>
+        <f t="shared" si="23"/>
         <v>85</v>
       </c>
       <c r="J43" s="68">
-        <f>SUM(J3:J42)</f>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="K43" s="61">
-        <f>SUM(K3:K42)</f>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="L43" s="69">
-        <f>SUM(L3:L42)</f>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="M43" s="68">
-        <f>SUM(M3:M42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N43" s="61">
-        <f>SUM(N3:N42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O43" s="67">
-        <f>SUM(O3:O42)</f>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="P43" s="68">
-        <f>SUM(P3:P42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q43" s="61">
-        <f>SUM(Q3:Q42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R43" s="67">
-        <f>SUM(R3:R42)</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="S43" s="68">
-        <f>SUM(S3:S42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T43" s="61">
-        <f>SUM(T3:T42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U43" s="69">
-        <f>SUM(U3:U42)</f>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="V43" s="68">
-        <f>SUM(V3:V42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W43" s="70">
-        <f>SUM(W3:W42)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X43" s="67">
-        <f>SUM(X3:X42)</f>
+        <f t="shared" si="23"/>
         <v>213</v>
       </c>
       <c r="Y43" s="68">
-        <f>SUM(Y3:Y42)</f>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="Z43" s="61">
-        <f>SUM(Z3:Z42)</f>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="35">
         <f>+C43</f>
@@ -4614,63 +4692,63 @@
         <v>2</v>
       </c>
       <c r="F44" s="38">
-        <f t="shared" ref="F44:T44" si="22">+F43+C44</f>
+        <f t="shared" ref="F44:T44" si="24">+F43+C44</f>
         <v>44</v>
       </c>
       <c r="G44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="H44" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="I44" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>129</v>
       </c>
       <c r="J44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="K44" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="L44" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>160</v>
       </c>
       <c r="M44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="N44" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="O44" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>181</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="Q44" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="R44" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>193</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="T44" s="37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="U44" s="38">
@@ -4692,7 +4770,7 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="33">
         <f>SUM(B3:B42)</f>
@@ -4701,16 +4779,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N49" s="33" t="s">
         <v>10</v>
@@ -4731,20 +4809,20 @@
         <v>129</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
         <v>-75</v>
       </c>
       <c r="F50" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="33" t="s">
-        <v>33</v>
       </c>
       <c r="N50" s="33">
         <f>+C44</f>
@@ -4768,20 +4846,20 @@
         <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="41">
         <f>+B51-B52</f>
         <v>9</v>
       </c>
       <c r="F51" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M51" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="N51" s="33">
         <f>+F44</f>
@@ -4805,20 +4883,20 @@
         <v>45</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
         <v>0.41860465116279072</v>
       </c>
       <c r="F52" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="33" t="s">
-        <v>41</v>
       </c>
       <c r="N52" s="33">
         <f>+I44</f>
@@ -4835,20 +4913,20 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E53" s="41">
         <f>+B51/B52</f>
         <v>1.2</v>
       </c>
       <c r="F53" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="M53" s="33" t="s">
-        <v>45</v>
       </c>
       <c r="N53" s="33">
         <f>+L44</f>
@@ -4864,24 +4942,27 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="D54" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E54" s="41">
         <f>+B46-B51</f>
         <v>207</v>
       </c>
       <c r="F54" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="M54" s="42" t="s">
         <v>48</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M54" s="42" t="s">
-        <v>50</v>
       </c>
       <c r="N54" s="33">
         <f>O44</f>
@@ -4898,23 +4979,23 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
         <v>412.08333333333331</v>
       </c>
       <c r="F55" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M55" s="42" t="s">
         <v>51</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="M55" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="N55" s="33">
         <f>R44</f>
@@ -4931,23 +5012,23 @@
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="41">
         <f>+B52+(B46-B51)</f>
         <v>252</v>
       </c>
       <c r="F56" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="M56" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="G56" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J56" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="M56" s="42" t="s">
-        <v>57</v>
       </c>
       <c r="N56" s="33">
         <f>U44</f>
@@ -4964,53 +5045,53 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="41">
         <f>+B46/E53</f>
         <v>217.5</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
         <v>457.08333333333331</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E59" s="41">
         <f>+(B46-B51)/(B46-B52)</f>
         <v>0.95833333333333337</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5981,11 +6062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
     <col min="3" max="5" width="10.125" customWidth="1"/>
@@ -5998,53 +6079,53 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="B2" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+        <v>63</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="99">
+        <v>65</v>
+      </c>
+      <c r="C5" s="120">
         <v>43749</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+        <v>66</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6300,18 +6381,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="103"/>
+      <c r="B22" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6330,16 +6411,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="127"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6358,16 +6439,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
+      <c r="K24" s="130"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6412,56 +6493,54 @@
       <c r="Y25" s="47"/>
       <c r="Z25" s="47"/>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:26" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="B27" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B27" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+    </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="140"/>
-      <c r="F32" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="140"/>
+      <c r="B32" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="112"/>
+      <c r="D32" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="112"/>
+      <c r="F32" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="112"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="49">
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="129"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="118"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6471,16 +6550,16 @@
         <f>+Cálculos!B50</f>
         <v>129</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="126"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
@@ -6490,16 +6569,16 @@
         <f>+Cálculos!B51</f>
         <v>54</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
@@ -6509,242 +6588,242 @@
         <f>+Cálculos!B52</f>
         <v>45</v>
       </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="122"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="109"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="138" t="s">
-        <v>30</v>
+      <c r="B37" s="93" t="s">
+        <v>28</v>
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
         <v>-75</v>
       </c>
-      <c r="D37" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="123"/>
-      <c r="F37" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="116"/>
+      <c r="D37" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="100"/>
+      <c r="F37" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="134"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="135"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="51">
         <f>+Cálculos!E51</f>
         <v>9</v>
       </c>
-      <c r="D38" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="134"/>
+      <c r="D38" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="138"/>
+      <c r="F38" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="140"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
         <v>0.41860465116279072</v>
       </c>
-      <c r="D39" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="123"/>
-      <c r="F39" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="119"/>
+      <c r="D39" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="51">
         <f>+Cálculos!E53</f>
         <v>1.2</v>
       </c>
-      <c r="D40" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="123"/>
-      <c r="F40" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="119"/>
+      <c r="D40" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="51">
         <f>+Cálculos!E54</f>
         <v>207</v>
       </c>
-      <c r="D41" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="123"/>
-      <c r="F41" s="117" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="119"/>
+      <c r="D41" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
         <v>412.08333333333331</v>
       </c>
-      <c r="D42" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="123"/>
-      <c r="F42" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="119"/>
+      <c r="D42" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="51">
         <f>+Cálculos!E56</f>
         <v>252</v>
       </c>
-      <c r="D43" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="123"/>
-      <c r="F43" s="117" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="119"/>
+      <c r="D43" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="51">
         <f>+Cálculos!E57</f>
         <v>217.5</v>
       </c>
-      <c r="D44" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="123"/>
-      <c r="F44" s="117" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="119"/>
+      <c r="D44" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
         <v>457.08333333333331</v>
       </c>
-      <c r="D45" s="95" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="123"/>
-      <c r="F45" s="117" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="119"/>
+      <c r="D45" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="53">
         <f>+Cálculos!E59</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="132"/>
-      <c r="F46" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="137"/>
+      <c r="D46" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="133"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
+      <c r="B48" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="124"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6763,16 +6842,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="126"/>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="127"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6789,18 +6868,18 @@
       <c r="Y49" s="47"/>
       <c r="Z49" s="47"/>
     </row>
-    <row r="50" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="130"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6847,16 +6926,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
+      <c r="I54" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7806,7 +7885,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F46:K46"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7817,7 +7895,10 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:K40"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -7835,17 +7916,15 @@
     <mergeCell ref="F35:K35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:K36"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:K42"/>
     <mergeCell ref="B48:K50"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuliano\Desktop\Unla-RoyalAcademy\Entregables\Informe de avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculos" sheetId="1" r:id="rId1"/>
@@ -280,29 +280,6 @@
   </si>
   <si>
     <t>Desarrollar vista de examen</t>
-  </si>
-  <si>
-    <r>
-      <t>Análisis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>En base al SPI, que da 0,42, y al análisis del periodo anterior, se llega a la conclusión de que el proyecto, si bien sigue retrasado respecto a las metas que debería cumplir, está acercándose al nivel en que debería estar. En el próximo período se buscará seguir implementando medidas que acerquen el SPI al valor ideal de 1.</t>
-    </r>
   </si>
   <si>
     <t>Planned Value</t>
@@ -421,6 +398,29 @@
         <family val="2"/>
       </rPr>
       <t>En base al gráfico, podemos observar que, a diferencia del período numero 2, avanzamos con la mayoría de las actividades planeadas para el tercer período. El AC sigue por debajo del EV.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Análisis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>En base al SPI, que da 0,39, y al análisis del periodo anterior, se llega a la conclusión de que el proyecto, si bien sigue retrasado respecto a las metas que debería cumplir, está acercándose al nivel en que debería estar. En el próximo período se buscará seguir implementando medidas que acerquen el SPI al valor ideal de 1.</t>
     </r>
   </si>
 </sst>
@@ -1649,12 +1649,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,50 +1669,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,6 +1717,51 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1760,22 +1771,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1935,22 +1935,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>181</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>213</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,9 +2645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="74">
         <v>8</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="75">
         <v>1</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="76">
         <v>6</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="76">
         <v>6</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="77">
         <v>6</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="31">
         <v>6</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="31">
         <v>6</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="31">
         <v>6</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="31">
         <v>4</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="31">
         <v>4</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="31">
         <v>6</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="31">
         <v>4</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="31">
         <v>4</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="31">
         <v>6</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="31">
         <v>6</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="31">
         <v>6</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="31">
         <v>6</v>
@@ -3977,12 +3977,12 @@
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="21"/>
       <c r="H29" s="22"/>
       <c r="I29" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
@@ -4000,7 +4000,7 @@
       <c r="W29" s="54"/>
       <c r="X29" s="18">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" si="4"/>
@@ -4033,15 +4033,19 @@
       <c r="O30" s="23"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="54"/>
-      <c r="R30" s="23"/>
+      <c r="R30" s="23">
+        <v>8</v>
+      </c>
       <c r="S30" s="17"/>
       <c r="T30" s="54"/>
-      <c r="U30" s="23"/>
+      <c r="U30" s="23">
+        <v>8</v>
+      </c>
       <c r="V30" s="17"/>
       <c r="W30" s="54"/>
       <c r="X30" s="18">
         <f t="shared" ref="X30:Z31" si="6">+L30+I30+F30+C30+U30+R30+O30</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y30" s="18">
         <f t="shared" si="6"/>
@@ -4068,10 +4072,14 @@
       <c r="I31" s="23"/>
       <c r="J31" s="13"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="32"/>
+      <c r="L31" s="32">
+        <v>8</v>
+      </c>
       <c r="M31" s="13"/>
       <c r="N31" s="54"/>
-      <c r="O31" s="23"/>
+      <c r="O31" s="23">
+        <v>8</v>
+      </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="54"/>
       <c r="R31" s="23"/>
@@ -4082,7 +4090,7 @@
       <c r="W31" s="54"/>
       <c r="X31" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y31" s="18">
         <f t="shared" si="6"/>
@@ -4115,15 +4123,19 @@
       <c r="O32" s="23"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="54"/>
-      <c r="R32" s="23"/>
+      <c r="R32" s="23">
+        <v>8</v>
+      </c>
       <c r="S32" s="17"/>
       <c r="T32" s="54"/>
-      <c r="U32" s="23"/>
+      <c r="U32" s="23">
+        <v>8</v>
+      </c>
       <c r="V32" s="17"/>
       <c r="W32" s="54"/>
       <c r="X32" s="18">
         <f t="shared" ref="X32:X33" si="7">+L32+I32+F32+C32+U32+R32+O32</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y32" s="18">
         <f t="shared" ref="Y32:Y33" si="8">+M32+J32+G32+D32+V32+S32+P32</f>
@@ -4591,7 +4603,7 @@
       </c>
       <c r="F43" s="69">
         <f t="shared" si="23"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G43" s="68">
         <f t="shared" si="23"/>
@@ -4603,7 +4615,7 @@
       </c>
       <c r="I43" s="67">
         <f t="shared" si="23"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J43" s="68">
         <f t="shared" si="23"/>
@@ -4615,7 +4627,7 @@
       </c>
       <c r="L43" s="69">
         <f t="shared" si="23"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M43" s="68">
         <f t="shared" si="23"/>
@@ -4627,7 +4639,7 @@
       </c>
       <c r="O43" s="67">
         <f t="shared" si="23"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P43" s="68">
         <f t="shared" si="23"/>
@@ -4639,7 +4651,7 @@
       </c>
       <c r="R43" s="67">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="S43" s="68">
         <f t="shared" si="23"/>
@@ -4651,7 +4663,7 @@
       </c>
       <c r="U43" s="69">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="V43" s="68">
         <f t="shared" si="23"/>
@@ -4663,7 +4675,7 @@
       </c>
       <c r="X43" s="67">
         <f t="shared" si="23"/>
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="Y43" s="68">
         <f t="shared" si="23"/>
@@ -4693,7 +4705,7 @@
       </c>
       <c r="F44" s="38">
         <f t="shared" ref="F44:T44" si="24">+F43+C44</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G44" s="36">
         <f t="shared" si="24"/>
@@ -4705,7 +4717,7 @@
       </c>
       <c r="I44" s="35">
         <f t="shared" si="24"/>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J44" s="36">
         <f t="shared" si="24"/>
@@ -4717,7 +4729,7 @@
       </c>
       <c r="L44" s="38">
         <f t="shared" si="24"/>
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M44" s="36">
         <f t="shared" si="24"/>
@@ -4729,7 +4741,7 @@
       </c>
       <c r="O44" s="38">
         <f t="shared" si="24"/>
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="24"/>
@@ -4741,7 +4753,7 @@
       </c>
       <c r="R44" s="38">
         <f t="shared" si="24"/>
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="S44" s="36">
         <f t="shared" si="24"/>
@@ -4753,7 +4765,7 @@
       </c>
       <c r="U44" s="38">
         <f>+U43+R44</f>
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="V44" s="36">
         <f>+V43+M44</f>
@@ -4806,14 +4818,14 @@
       </c>
       <c r="B50" s="33">
         <f>I44</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D50" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
-        <v>-75</v>
+        <v>-83</v>
       </c>
       <c r="F50" s="33" t="s">
         <v>29</v>
@@ -4863,7 +4875,7 @@
       </c>
       <c r="N51" s="33">
         <f>+F44</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O51" s="33">
         <f>+G44</f>
@@ -4887,7 +4899,7 @@
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
-        <v>0.41860465116279072</v>
+        <v>0.39416058394160586</v>
       </c>
       <c r="F52" s="33" t="s">
         <v>37</v>
@@ -4900,7 +4912,7 @@
       </c>
       <c r="N52" s="33">
         <f>+I44</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O52" s="33">
         <f>+J44</f>
@@ -4930,7 +4942,7 @@
       </c>
       <c r="N53" s="33">
         <f>+L44</f>
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O53" s="33">
         <f>+M44</f>
@@ -4943,7 +4955,7 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="33" t="s">
         <v>44</v>
@@ -4966,7 +4978,7 @@
       </c>
       <c r="N54" s="33">
         <f>O44</f>
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="O54" s="33">
         <f>P44</f>
@@ -4983,7 +4995,7 @@
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
-        <v>412.08333333333331</v>
+        <v>437.63888888888891</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>49</v>
@@ -4999,7 +5011,7 @@
       </c>
       <c r="N55" s="33">
         <f>R44</f>
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="O55" s="33">
         <f>S44</f>
@@ -5032,7 +5044,7 @@
       </c>
       <c r="N56" s="33">
         <f>U44</f>
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="O56" s="33">
         <f>V44</f>
@@ -5067,7 +5079,7 @@
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
-        <v>457.08333333333331</v>
+        <v>482.63888888888891</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>57</v>
@@ -6062,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K24"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6079,29 +6091,29 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
@@ -6109,23 +6121,23 @@
       <c r="B5" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="120">
+      <c r="C5" s="110">
         <v>43749</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6381,18 +6393,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="122" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="124"/>
+      <c r="B22" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6411,16 +6423,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="K23" s="127"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6439,16 +6451,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="119"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="120"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6494,36 +6506,36 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="111" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="112"/>
-      <c r="F32" s="111" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="112"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="122"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
@@ -6533,14 +6545,14 @@
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="118"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="128"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6548,18 +6560,18 @@
       </c>
       <c r="C34" s="51">
         <f>+Cálculos!B50</f>
-        <v>129</v>
-      </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="106"/>
+        <v>137</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="131"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
@@ -6569,16 +6581,16 @@
         <f>+Cálculos!B51</f>
         <v>54</v>
       </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="133"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
@@ -6588,16 +6600,16 @@
         <f>+Cálculos!B52</f>
         <v>45</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="109"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="133"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
@@ -6605,20 +6617,20 @@
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
-        <v>-75</v>
-      </c>
-      <c r="D37" s="99" t="s">
+        <v>-83</v>
+      </c>
+      <c r="D37" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="100"/>
-      <c r="F37" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="134"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="135"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
@@ -6628,18 +6640,18 @@
         <f>+Cálculos!E51</f>
         <v>9</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="138"/>
-      <c r="F38" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="140"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="107"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
@@ -6647,20 +6659,20 @@
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="D39" s="99" t="s">
+        <v>0.39416058394160586</v>
+      </c>
+      <c r="D39" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="103"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
@@ -6670,18 +6682,18 @@
         <f>+Cálculos!E53</f>
         <v>1.2</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="103"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
@@ -6691,18 +6703,18 @@
         <f>+Cálculos!E54</f>
         <v>207</v>
       </c>
-      <c r="D41" s="99" t="s">
+      <c r="D41" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="103"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="104"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
@@ -6710,20 +6722,20 @@
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
-        <v>412.08333333333331</v>
-      </c>
-      <c r="D42" s="99" t="s">
+        <v>437.63888888888891</v>
+      </c>
+      <c r="D42" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="104"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
@@ -6733,18 +6745,18 @@
         <f>+Cálculos!E56</f>
         <v>252</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="100"/>
-      <c r="F43" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="103"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="104"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
@@ -6754,18 +6766,18 @@
         <f>+Cálculos!E57</f>
         <v>217.5</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="103"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="104"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
@@ -6773,20 +6785,20 @@
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
-        <v>457.08333333333331</v>
-      </c>
-      <c r="D45" s="99" t="s">
+        <v>482.63888888888891</v>
+      </c>
+      <c r="D45" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="100"/>
-      <c r="F45" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="103"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="104"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
@@ -6796,34 +6808,34 @@
         <f>+Cálculos!E59</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="136" t="s">
+      <c r="D46" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="133"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="138"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="124"/>
+      <c r="B48" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="114"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6842,16 +6854,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="126"/>
-      <c r="K49" s="127"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="117"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6870,16 +6882,16 @@
     </row>
     <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="130"/>
+      <c r="B50" s="118"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="120"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6926,16 +6938,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="98" t="s">
+      <c r="I54" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7885,6 +7897,32 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B22:K24"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7899,32 +7937,6 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:K40"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B22:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
@@ -87,15 +87,6 @@
     <t>Intregración ABM notas con Web</t>
   </si>
   <si>
-    <t>Vista de Administradores</t>
-  </si>
-  <si>
-    <t>Vista generación de exámen</t>
-  </si>
-  <si>
-    <t>Vista notas exámenes</t>
-  </si>
-  <si>
     <t>parciales</t>
   </si>
   <si>
@@ -277,9 +268,6 @@
   </si>
   <si>
     <t>Desarrollo vista de mantenimiento de examen por alumno</t>
-  </si>
-  <si>
-    <t>Desarrollar vista de examen</t>
   </si>
   <si>
     <t>Planned Value</t>
@@ -422,6 +410,18 @@
       </rPr>
       <t>En base al SPI, que da 0,39, y al análisis del periodo anterior, se llega a la conclusión de que el proyecto, si bien sigue retrasado respecto a las metas que debería cumplir, está acercándose al nivel en que debería estar. En el próximo período se buscará seguir implementando medidas que acerquen el SPI al valor ideal de 1.</t>
     </r>
+  </si>
+  <si>
+    <t>Desarrollo vista notas exámenes</t>
+  </si>
+  <si>
+    <t>Desarrollo vista de examen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista generación de exámen</t>
+  </si>
+  <si>
+    <t>Desarrollo vista de Administradores</t>
   </si>
 </sst>
 </file>
@@ -1649,11 +1649,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,27 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1717,6 +1697,42 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1741,41 +1757,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2254,7 +2254,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2646,8 +2645,8 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2786,7 +2785,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="74">
         <v>8</v>
@@ -2839,7 +2838,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="75">
         <v>1</v>
@@ -2886,7 +2885,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B5" s="76">
         <v>6</v>
@@ -2931,7 +2930,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B6" s="76">
         <v>6</v>
@@ -3025,7 +3024,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="86" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="77">
         <v>6</v>
@@ -3115,7 +3114,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B10" s="31">
         <v>6</v>
@@ -3207,7 +3206,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="31">
         <v>6</v>
@@ -3297,7 +3296,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="31">
         <v>6</v>
@@ -3387,7 +3386,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B16" s="31">
         <v>4</v>
@@ -3434,7 +3433,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B17" s="31">
         <v>4</v>
@@ -3481,7 +3480,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B18" s="31">
         <v>6</v>
@@ -3567,7 +3566,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B20" s="31">
         <v>4</v>
@@ -3610,7 +3609,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B21" s="31">
         <v>4</v>
@@ -3653,7 +3652,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B22" s="31">
         <v>2</v>
@@ -3696,7 +3695,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B23" s="31">
         <v>6</v>
@@ -3786,7 +3785,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B25" s="31">
         <v>6</v>
@@ -3829,7 +3828,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B26" s="31">
         <v>6</v>
@@ -3874,7 +3873,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B27" s="31">
         <v>6</v>
@@ -3919,7 +3918,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="31">
         <v>8</v>
@@ -3968,7 +3967,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="31">
         <v>16</v>
@@ -4013,7 +4012,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="B30" s="31">
         <v>16</v>
@@ -4058,7 +4057,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="80" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B31" s="31">
         <v>16</v>
@@ -4103,7 +4102,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="80" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B32" s="31">
         <v>16</v>
@@ -4148,7 +4147,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B33" s="78">
         <v>16</v>
@@ -4193,7 +4192,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="31">
         <v>4</v>
@@ -4236,7 +4235,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B35" s="31">
         <v>8</v>
@@ -4281,7 +4280,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B36" s="31">
         <v>4</v>
@@ -4324,7 +4323,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B37" s="31">
         <v>4</v>
@@ -4367,7 +4366,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B38" s="78">
         <v>10</v>
@@ -4412,7 +4411,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B39" s="31">
         <v>6</v>
@@ -4457,7 +4456,7 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" s="31">
         <v>4</v>
@@ -4500,7 +4499,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" s="31">
         <v>4</v>
@@ -4543,7 +4542,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="89" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" s="91">
         <v>8</v>
@@ -4587,7 +4586,7 @@
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="73"/>
       <c r="B43" s="71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C43" s="67">
         <f t="shared" ref="C43:Z43" si="23">SUM(C3:C42)</f>
@@ -4689,7 +4688,7 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" s="35">
         <f>+C43</f>
@@ -4782,7 +4781,7 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B46" s="33">
         <f>SUM(B3:B42)</f>
@@ -4791,16 +4790,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N49" s="33" t="s">
         <v>10</v>
@@ -4821,20 +4820,20 @@
         <v>137</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E50" s="41">
         <f>+B51-B50</f>
         <v>-83</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M50" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N50" s="33">
         <f>+C44</f>
@@ -4858,20 +4857,20 @@
         <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E51" s="41">
         <f>+B51-B52</f>
         <v>9</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M51" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N51" s="33">
         <f>+F44</f>
@@ -4895,20 +4894,20 @@
         <v>45</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E52" s="41">
         <f>+B51/B50</f>
         <v>0.39416058394160586</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M52" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N52" s="33">
         <f>+I44</f>
@@ -4925,20 +4924,20 @@
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E53" s="41">
         <f>+B51/B52</f>
         <v>1.2</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M53" s="33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N53" s="33">
         <f>+L44</f>
@@ -4955,26 +4954,26 @@
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E54" s="41">
         <f>+B46-B51</f>
         <v>207</v>
       </c>
       <c r="F54" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="42" t="s">
         <v>45</v>
-      </c>
-      <c r="G54" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M54" s="42" t="s">
-        <v>48</v>
       </c>
       <c r="N54" s="33">
         <f>O44</f>
@@ -4991,23 +4990,23 @@
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" s="33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E55" s="41">
         <f>+(B46-B51)/(E52*E53)</f>
         <v>437.63888888888891</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N55" s="33">
         <f>R44</f>
@@ -5024,23 +5023,23 @@
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D56" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E56" s="41">
         <f>+B52+(B46-B51)</f>
         <v>252</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M56" s="42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N56" s="33">
         <f>U44</f>
@@ -5057,53 +5056,53 @@
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57" s="41">
         <f>+B46/E53</f>
         <v>217.5</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58" s="41">
         <f>+B52+(B46-B51)/(E53*E52)</f>
         <v>482.63888888888891</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E59" s="41">
         <f>+(B46-B51)/(B46-B52)</f>
         <v>0.95833333333333337</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6091,53 +6090,53 @@
   <sheetData>
     <row r="1" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="B2" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="110">
+        <v>62</v>
+      </c>
+      <c r="C5" s="134">
         <v>43749</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
     </row>
     <row r="6" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+        <v>63</v>
+      </c>
+      <c r="C6" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
@@ -6393,18 +6392,18 @@
     </row>
     <row r="22" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
+      <c r="B22" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6423,16 +6422,16 @@
     </row>
     <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="117"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6451,16 +6450,16 @@
     </row>
     <row r="24" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="120"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6506,53 +6505,53 @@
       <c r="Z25" s="47"/>
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B27" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
+      <c r="B27" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="121" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="122"/>
+      <c r="B32" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="126"/>
+      <c r="D32" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="126"/>
+      <c r="F32" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="126"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="48" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="49">
         <f>+Cálculos!B46</f>
         <v>261</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="132"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
@@ -6562,16 +6561,16 @@
         <f>+Cálculos!B50</f>
         <v>137</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="131"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
@@ -6581,16 +6580,16 @@
         <f>+Cálculos!B51</f>
         <v>54</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="133"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="123"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="48" t="s">
@@ -6600,242 +6599,242 @@
         <f>+Cálculos!B52</f>
         <v>45</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="132"/>
-      <c r="K36" s="133"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="123"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="49">
         <f>+Cálculos!E50</f>
         <v>-83</v>
       </c>
-      <c r="D37" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
+      <c r="D37" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="100"/>
+      <c r="F37" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="137"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C38" s="51">
         <f>+Cálculos!E51</f>
         <v>9</v>
       </c>
-      <c r="D38" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="107"/>
+      <c r="D38" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="138"/>
+      <c r="F38" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="140"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" s="51">
         <f>+Cálculos!E52</f>
         <v>0.39416058394160586</v>
       </c>
-      <c r="D39" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="104"/>
+      <c r="D39" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40" s="51">
         <f>+Cálculos!E53</f>
         <v>1.2</v>
       </c>
-      <c r="D40" s="100" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="104"/>
+      <c r="D40" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="103"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="51">
         <f>+Cálculos!E54</f>
         <v>207</v>
       </c>
-      <c r="D41" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="104"/>
+      <c r="D41" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="51">
         <f>+Cálculos!E55</f>
         <v>437.63888888888891</v>
       </c>
-      <c r="D42" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="104"/>
+      <c r="D42" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C43" s="51">
         <f>+Cálculos!E56</f>
         <v>252</v>
       </c>
-      <c r="D43" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="104"/>
+      <c r="D43" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C44" s="51">
         <f>+Cálculos!E57</f>
         <v>217.5</v>
       </c>
-      <c r="D44" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="104"/>
+      <c r="D44" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="103"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" s="51">
         <f>+Cálculos!E58</f>
         <v>482.63888888888891</v>
       </c>
-      <c r="D45" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="104"/>
+      <c r="D45" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="103"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C46" s="53">
         <f>+Cálculos!E59</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="D46" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="138"/>
+      <c r="D46" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="117"/>
+      <c r="F46" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="115"/>
     </row>
     <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="112" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="B48" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="106"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -6854,16 +6853,16 @@
     </row>
     <row r="49" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="117"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="109"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="47"/>
@@ -6882,16 +6881,16 @@
     </row>
     <row r="50" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="120"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="112"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="47"/>
@@ -6938,16 +6937,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="135" t="s">
-        <v>71</v>
-      </c>
-      <c r="J54" s="135"/>
-      <c r="K54" s="135"/>
+      <c r="I54" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7897,32 +7896,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="B48:K50"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B22:K24"/>
     <mergeCell ref="F37:K37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F45:K45"/>
@@ -7937,6 +7910,32 @@
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:K40"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B22:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="B48:K50"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
+++ b/Entregables/Informe de avance/Informe de Avance - Periodo 3.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Cálculos" sheetId="1" r:id="rId1"/>
     <sheet name="Informe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -2254,6 +2254,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2644,9 +2645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4767,11 +4768,11 @@
         <v>269</v>
       </c>
       <c r="V44" s="36">
-        <f>+V43+M44</f>
+        <f>+V43+S44</f>
         <v>54</v>
       </c>
       <c r="W44" s="39">
-        <f>+W43+N44</f>
+        <f>+W43+T44</f>
         <v>45</v>
       </c>
       <c r="X44" s="35"/>
@@ -6073,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:K50"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6577,8 +6578,8 @@
         <v>12</v>
       </c>
       <c r="C35" s="51">
-        <f>+Cálculos!B51</f>
-        <v>54</v>
+        <f>+Cálculos!B52</f>
+        <v>45</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="100"/>
@@ -6596,8 +6597,8 @@
         <v>11</v>
       </c>
       <c r="C36" s="49">
-        <f>+Cálculos!B52</f>
-        <v>45</v>
+        <f>+Cálculos!B51</f>
+        <v>54</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="100"/>
